--- a/Phase 2/Sprint3/Backlog.xlsx
+++ b/Phase 2/Sprint3/Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sprint Backlog - Sprint 3 (Phase 2)</t>
   </si>
@@ -34,20 +34,23 @@
     <t>Task Description</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Desenvolvimento do código</t>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Adicionar task type a uma tarefa</t>
+  </si>
+  <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>Começar a fazer a user stories tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -62,6 +65,15 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -128,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -153,20 +165,23 @@
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,17 +436,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12" t="s">
+    </row>
+    <row r="6">
+      <c r="B6" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
